--- a/nr-mv-MS/ig/StructureDefinition-as-dr-practitionerrole.xlsx
+++ b/nr-mv-MS/ig/StructureDefinition-as-dr-practitionerrole.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$124</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4890" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4595" uniqueCount="628">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:08:34+00:00</t>
+    <t>2025-10-08T14:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1373,13 +1373,35 @@
     <t>ContactPoint</t>
   </si>
   <si>
+    <t>PractitionerRole.telecom:mailbox-mss</t>
+  </si>
+  <si>
+    <t>mailbox-mss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-mailbox-mss}
+</t>
+  </si>
+  <si>
+    <t>BALs MSS de type PER rattachés à l'identifiant du professionnel de santé  ainsi qu'au lieu de sa situation d'exercice (BoiteLettreMSS).</t>
+  </si>
+  <si>
+    <t>SituationExercice.boiteLettresMSS</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom:mailbox-mss.id</t>
+  </si>
+  <si>
     <t>PractitionerRole.telecom.id</t>
   </si>
   <si>
+    <t>PractitionerRole.telecom:mailbox-mss.extension</t>
+  </si>
+  <si>
     <t>PractitionerRole.telecom.extension</t>
   </si>
   <si>
-    <t>PractitionerRole.telecom.extension:emailType</t>
+    <t>PractitionerRole.telecom:mailbox-mss.extension:emailType</t>
   </si>
   <si>
     <t>emailType</t>
@@ -1393,162 +1415,6 @@
   </si>
   <si>
     <t>Extension on the ContactPoint datatype. This extension allows to specify the type of mail used to contact the person (MSSsanté|Apicrypt|OSM|Autre).</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom.system</t>
-  </si>
-  <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpt-2
-</t>
-  </si>
-  <si>
-    <t>SituationExercice.telecommunication.canal</t>
-  </si>
-  <si>
-    <t>XTN.3</t>
-  </si>
-  <si>
-    <t>./scheme</t>
-  </si>
-  <si>
-    <t>./ContactPointType</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom.value</t>
-  </si>
-  <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
-  </si>
-  <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
-  </si>
-  <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
-  </si>
-  <si>
-    <t>ContactPoint.value</t>
-  </si>
-  <si>
-    <t>SituationExercice.telecommunication.adresseTelecom</t>
-  </si>
-  <si>
-    <t>XTN.1 (or XTN.12)</t>
-  </si>
-  <si>
-    <t>./url</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>Use of contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.use</t>
-  </si>
-  <si>
-    <t>SituationExercice.telecommunication.utilisation</t>
-  </si>
-  <si>
-    <t>XTN.2 - but often indicated by field</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
-    <t>./ContactPointPurpose</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom.rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
-  </si>
-  <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
-  </si>
-  <si>
-    <t>ContactPoint.rank</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom.period</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use.</t>
-  </si>
-  <si>
-    <t>ContactPoint.period</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom:mailbox-mss</t>
-  </si>
-  <si>
-    <t>mailbox-mss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-mailbox-mss}
-</t>
-  </si>
-  <si>
-    <t>BALs MSS de type PER rattachés à l'identifiant du professionnel de santé  ainsi qu'au lieu de sa situation d'exercice (BoiteLettreMSS).</t>
-  </si>
-  <si>
-    <t>SituationExercice.boiteLettresMSS</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom:mailbox-mss.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom:mailbox-mss.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.telecom:mailbox-mss.extension:emailType</t>
   </si>
   <si>
     <t>PractitionerRole.telecom:mailbox-mss.extension:emailType.id</t>
@@ -1797,22 +1663,150 @@
     <t>PractitionerRole.telecom:mailbox-mss.system</t>
   </si>
   <si>
+    <t>PractitionerRole.telecom.system</t>
+  </si>
+  <si>
+    <t>phone | fax | email | pager | url | sms | other</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
+    <t>Telecommunications form for contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpt-2
+</t>
+  </si>
+  <si>
+    <t>SituationExercice.telecommunication.canal</t>
+  </si>
+  <si>
+    <t>XTN.3</t>
+  </si>
+  <si>
+    <t>./scheme</t>
+  </si>
+  <si>
+    <t>./ContactPointType</t>
+  </si>
+  <si>
     <t>PractitionerRole.telecom:mailbox-mss.value</t>
   </si>
   <si>
+    <t>PractitionerRole.telecom.value</t>
+  </si>
+  <si>
     <t>Boîte Aux Lettres (BAL) MSS</t>
   </si>
   <si>
+    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+  </si>
+  <si>
+    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+  </si>
+  <si>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>ContactPoint.value</t>
+  </si>
+  <si>
+    <t>SituationExercice.telecommunication.adresseTelecom</t>
+  </si>
+  <si>
+    <t>XTN.1 (or XTN.12)</t>
+  </si>
+  <si>
+    <t>./url</t>
+  </si>
+  <si>
     <t>PractitionerRole.telecom:mailbox-mss.use</t>
   </si>
   <si>
+    <t>PractitionerRole.telecom.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for the contact point.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>Use of contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.use</t>
+  </si>
+  <si>
+    <t>SituationExercice.telecommunication.utilisation</t>
+  </si>
+  <si>
+    <t>XTN.2 - but often indicated by field</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>./ContactPointPurpose</t>
+  </si>
+  <si>
     <t>PractitionerRole.telecom:mailbox-mss.rank</t>
   </si>
   <si>
+    <t>PractitionerRole.telecom.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Specify preferred order of use (1 = highest)</t>
+  </si>
+  <si>
+    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+  </si>
+  <si>
+    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
+  </si>
+  <si>
+    <t>ContactPoint.rank</t>
+  </si>
+  <si>
     <t>PractitionerRole.telecom:mailbox-mss.period</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.period</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use.</t>
+  </si>
+  <si>
+    <t>ContactPoint.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
   </si>
   <si>
     <t>PractitionerRole.availableTime</t>
@@ -2286,7 +2280,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO132"/>
+  <dimension ref="A1:AO124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8787,9 +8781,11 @@
         <v>437</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8798,7 +8794,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8810,16 +8806,18 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>104</v>
+        <v>439</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>105</v>
+        <v>440</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>106</v>
+        <v>429</v>
       </c>
       <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8867,31 +8865,31 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>107</v>
+        <v>426</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>78</v>
+        <v>432</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>78</v>
+        <v>441</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>78</v>
+        <v>434</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>108</v>
+        <v>435</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>78</v>
+        <v>436</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>78</v>
@@ -8899,21 +8897,21 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
@@ -8925,17 +8923,15 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -8972,31 +8968,31 @@
         <v>78</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
@@ -9016,23 +9012,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
@@ -9044,13 +9038,13 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>441</v>
+        <v>111</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>442</v>
+        <v>204</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>443</v>
+        <v>205</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9089,16 +9083,16 @@
         <v>78</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>118</v>
@@ -9133,12 +9127,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>78</v>
       </c>
@@ -9156,16 +9152,16 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>179</v>
+        <v>448</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9192,13 +9188,13 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>447</v>
+        <v>78</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>448</v>
+        <v>78</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -9216,31 +9212,31 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>449</v>
+        <v>118</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>450</v>
+        <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>452</v>
+        <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>453</v>
+        <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>454</v>
+        <v>78</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>78</v>
@@ -9248,10 +9244,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9259,7 +9255,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>90</v>
@@ -9271,23 +9267,19 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>104</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>456</v>
+        <v>105</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>78</v>
       </c>
@@ -9335,7 +9327,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>460</v>
+        <v>107</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9347,19 +9339,19 @@
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>461</v>
+        <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>462</v>
+        <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>463</v>
+        <v>108</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>78</v>
@@ -9367,10 +9359,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9381,32 +9373,28 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>465</v>
+        <v>204</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
       </c>
@@ -9430,55 +9418,55 @@
         <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>469</v>
+        <v>78</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>470</v>
+        <v>78</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>471</v>
+        <v>118</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>472</v>
+        <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>473</v>
+        <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>474</v>
+        <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>475</v>
+        <v>78</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>78</v>
@@ -9486,10 +9474,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9497,7 +9485,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>90</v>
@@ -9509,19 +9497,19 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>477</v>
+        <v>137</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9529,7 +9517,7 @@
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" t="s" s="2">
-        <v>78</v>
+        <v>460</v>
       </c>
       <c r="S62" t="s" s="2">
         <v>78</v>
@@ -9571,10 +9559,10 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>90</v>
@@ -9583,16 +9571,16 @@
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9603,10 +9591,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9626,16 +9614,16 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>297</v>
+        <v>157</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9647,7 +9635,7 @@
         <v>78</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>78</v>
+        <v>466</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>78</v>
@@ -9662,13 +9650,11 @@
         <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>78</v>
+        <v>467</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>78</v>
@@ -9686,7 +9672,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9704,13 +9690,13 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AM63" t="s" s="2">
-        <v>486</v>
-      </c>
       <c r="AN63" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>78</v>
@@ -9718,13 +9704,13 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>78</v>
@@ -9734,7 +9720,7 @@
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>78</v>
@@ -9746,18 +9732,16 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>429</v>
+        <v>473</v>
       </c>
       <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>430</v>
-      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>78</v>
       </c>
@@ -9805,7 +9789,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>426</v>
+        <v>118</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9814,22 +9798,22 @@
         <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>432</v>
+        <v>119</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>491</v>
+        <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>434</v>
+        <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>435</v>
+        <v>78</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>436</v>
+        <v>78</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>78</v>
@@ -9837,10 +9821,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9952,18 +9936,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>80</v>
@@ -9981,12 +9965,14 @@
         <v>111</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -10056,7 +10042,7 @@
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -10067,20 +10053,20 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>440</v>
+        <v>477</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>90</v>
@@ -10095,13 +10081,13 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>441</v>
+        <v>111</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>442</v>
+        <v>478</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>443</v>
+        <v>205</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10184,10 +10170,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10299,10 +10285,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10414,10 +10400,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10443,13 +10429,13 @@
         <v>137</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>502</v>
+        <v>458</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>503</v>
+        <v>459</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10457,7 +10443,7 @@
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>504</v>
+        <v>477</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>78</v>
@@ -10499,7 +10485,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>505</v>
+        <v>461</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>90</v>
@@ -10531,10 +10517,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10557,13 +10543,13 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>157</v>
+        <v>264</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>508</v>
+        <v>464</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>509</v>
+        <v>465</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10575,7 +10561,7 @@
         <v>78</v>
       </c>
       <c r="S71" t="s" s="2">
-        <v>510</v>
+        <v>78</v>
       </c>
       <c r="T71" t="s" s="2">
         <v>78</v>
@@ -10590,11 +10576,11 @@
         <v>78</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>161</v>
+        <v>257</v>
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>78</v>
@@ -10612,7 +10598,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10644,13 +10630,13 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>78</v>
@@ -10672,13 +10658,13 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>515</v>
+        <v>111</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>516</v>
+        <v>204</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>517</v>
+        <v>205</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10761,10 +10747,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>518</v>
+        <v>490</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10876,21 +10862,21 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>519</v>
+        <v>491</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -10905,14 +10891,12 @@
         <v>111</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10982,7 +10966,7 @@
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10993,20 +10977,18 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>520</v>
+        <v>492</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>521</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>90</v>
@@ -11021,22 +11003,24 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>522</v>
+        <v>457</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q75" s="2"/>
       <c r="R75" t="s" s="2">
-        <v>78</v>
+        <v>489</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>78</v>
@@ -11078,19 +11062,19 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>118</v>
+        <v>461</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
@@ -11099,7 +11083,7 @@
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -11110,10 +11094,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>524</v>
+        <v>486</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11139,10 +11123,10 @@
         <v>104</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>105</v>
+        <v>464</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>106</v>
+        <v>465</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11193,7 +11177,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>107</v>
+        <v>468</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11205,7 +11189,7 @@
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
@@ -11214,7 +11198,7 @@
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -11225,12 +11209,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>525</v>
+        <v>494</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="D77" t="s" s="2">
         <v>78</v>
       </c>
@@ -11239,7 +11225,7 @@
         <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>78</v>
@@ -11254,7 +11240,7 @@
         <v>111</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>204</v>
+        <v>496</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>205</v>
@@ -11296,16 +11282,16 @@
         <v>78</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>118</v>
@@ -11340,10 +11326,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>527</v>
+        <v>497</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>528</v>
+        <v>480</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11351,7 +11337,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>90</v>
@@ -11366,24 +11352,22 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>501</v>
+        <v>105</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>521</v>
+        <v>78</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>78</v>
@@ -11425,10 +11409,10 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>505</v>
+        <v>107</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>90</v>
@@ -11446,7 +11430,7 @@
         <v>78</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11457,10 +11441,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>529</v>
+        <v>498</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>530</v>
+        <v>482</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11471,7 +11455,7 @@
         <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>78</v>
@@ -11483,13 +11467,13 @@
         <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>264</v>
+        <v>111</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>508</v>
+        <v>204</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>509</v>
+        <v>205</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11516,41 +11500,43 @@
         <v>78</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y79" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z79" t="s" s="2">
-        <v>531</v>
+        <v>78</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>512</v>
+        <v>118</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
@@ -11559,7 +11545,7 @@
         <v>78</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
@@ -11570,20 +11556,18 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>532</v>
+        <v>499</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>90</v>
@@ -11598,22 +11582,24 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>204</v>
+        <v>457</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q80" s="2"/>
       <c r="R80" t="s" s="2">
-        <v>78</v>
+        <v>495</v>
       </c>
       <c r="S80" t="s" s="2">
         <v>78</v>
@@ -11655,19 +11641,19 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>118</v>
+        <v>461</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
@@ -11676,7 +11662,7 @@
         <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11687,10 +11673,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>534</v>
+        <v>500</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>524</v>
+        <v>486</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11716,10 +11702,10 @@
         <v>104</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>105</v>
+        <v>464</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>106</v>
+        <v>465</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11770,7 +11756,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>107</v>
+        <v>468</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11782,7 +11768,7 @@
         <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>78</v>
@@ -11791,7 +11777,7 @@
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11802,12 +11788,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>535</v>
+        <v>501</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="D82" t="s" s="2">
         <v>78</v>
       </c>
@@ -11816,7 +11804,7 @@
         <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>78</v>
@@ -11873,16 +11861,16 @@
         <v>78</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>118</v>
@@ -11917,10 +11905,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>536</v>
+        <v>503</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>528</v>
+        <v>480</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11928,7 +11916,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>90</v>
@@ -11943,24 +11931,22 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>501</v>
+        <v>105</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>533</v>
+        <v>78</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>78</v>
@@ -12002,10 +11988,10 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>505</v>
+        <v>107</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>90</v>
@@ -12023,7 +12009,7 @@
         <v>78</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>78</v>
@@ -12034,10 +12020,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>537</v>
+        <v>504</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>530</v>
+        <v>482</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12048,7 +12034,7 @@
         <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>78</v>
@@ -12060,13 +12046,13 @@
         <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>508</v>
+        <v>204</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>509</v>
+        <v>205</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12105,31 +12091,31 @@
         <v>78</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>512</v>
+        <v>118</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>78</v>
@@ -12138,7 +12124,7 @@
         <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -12149,20 +12135,18 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>538</v>
+        <v>505</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>539</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>90</v>
@@ -12177,22 +12161,24 @@
         <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>540</v>
+        <v>457</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q85" s="2"/>
       <c r="R85" t="s" s="2">
-        <v>78</v>
+        <v>502</v>
       </c>
       <c r="S85" t="s" s="2">
         <v>78</v>
@@ -12234,19 +12220,19 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>118</v>
+        <v>461</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>78</v>
@@ -12255,7 +12241,7 @@
         <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
@@ -12266,10 +12252,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>541</v>
+        <v>506</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>524</v>
+        <v>486</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12295,10 +12281,10 @@
         <v>104</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>105</v>
+        <v>464</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>106</v>
+        <v>465</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12349,7 +12335,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>107</v>
+        <v>468</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -12361,7 +12347,7 @@
         <v>78</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>78</v>
@@ -12370,7 +12356,7 @@
         <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -12381,12 +12367,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>542</v>
+        <v>507</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="C87" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="D87" t="s" s="2">
         <v>78</v>
       </c>
@@ -12395,7 +12383,7 @@
         <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>78</v>
@@ -12410,7 +12398,7 @@
         <v>111</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>204</v>
+        <v>509</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>205</v>
@@ -12452,16 +12440,16 @@
         <v>78</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>118</v>
@@ -12496,10 +12484,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>543</v>
+        <v>510</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>528</v>
+        <v>480</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12507,7 +12495,7 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>90</v>
@@ -12522,24 +12510,22 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>501</v>
+        <v>105</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>539</v>
+        <v>78</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>78</v>
@@ -12581,10 +12567,10 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>505</v>
+        <v>107</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>90</v>
@@ -12602,7 +12588,7 @@
         <v>78</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>78</v>
@@ -12613,10 +12599,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>544</v>
+        <v>511</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>530</v>
+        <v>482</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12627,7 +12613,7 @@
         <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>78</v>
@@ -12639,13 +12625,13 @@
         <v>78</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>508</v>
+        <v>204</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>509</v>
+        <v>205</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12684,31 +12670,31 @@
         <v>78</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>512</v>
+        <v>118</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>78</v>
@@ -12717,7 +12703,7 @@
         <v>78</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>78</v>
@@ -12728,20 +12714,18 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C90" t="s" s="2">
-        <v>546</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>90</v>
@@ -12756,22 +12740,24 @@
         <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>204</v>
+        <v>457</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q90" s="2"/>
       <c r="R90" t="s" s="2">
-        <v>78</v>
+        <v>508</v>
       </c>
       <c r="S90" t="s" s="2">
         <v>78</v>
@@ -12813,19 +12799,19 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>118</v>
+        <v>461</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>78</v>
@@ -12834,7 +12820,7 @@
         <v>78</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>78</v>
@@ -12845,10 +12831,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>547</v>
+        <v>513</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>524</v>
+        <v>486</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12874,10 +12860,10 @@
         <v>104</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>105</v>
+        <v>464</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>106</v>
+        <v>465</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12928,7 +12914,7 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>107</v>
+        <v>468</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -12940,7 +12926,7 @@
         <v>78</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>78</v>
@@ -12949,7 +12935,7 @@
         <v>78</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>78</v>
@@ -12960,12 +12946,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>548</v>
+        <v>514</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="C92" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="D92" t="s" s="2">
         <v>78</v>
       </c>
@@ -12974,7 +12962,7 @@
         <v>79</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>78</v>
@@ -13031,16 +13019,16 @@
         <v>78</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>118</v>
@@ -13075,10 +13063,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>549</v>
+        <v>516</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>528</v>
+        <v>480</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13086,7 +13074,7 @@
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>90</v>
@@ -13101,24 +13089,22 @@
         <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>501</v>
+        <v>105</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>546</v>
+        <v>78</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>78</v>
@@ -13160,10 +13146,10 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>505</v>
+        <v>107</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>90</v>
@@ -13181,7 +13167,7 @@
         <v>78</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>78</v>
@@ -13192,10 +13178,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>550</v>
+        <v>517</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>530</v>
+        <v>482</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13206,7 +13192,7 @@
         <v>79</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>78</v>
@@ -13218,13 +13204,13 @@
         <v>78</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>508</v>
+        <v>204</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>509</v>
+        <v>205</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13263,31 +13249,31 @@
         <v>78</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>512</v>
+        <v>118</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>78</v>
@@ -13296,7 +13282,7 @@
         <v>78</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>78</v>
@@ -13307,20 +13293,18 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>551</v>
+        <v>518</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>90</v>
@@ -13335,22 +13319,24 @@
         <v>78</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>553</v>
+        <v>457</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q95" s="2"/>
       <c r="R95" t="s" s="2">
-        <v>78</v>
+        <v>515</v>
       </c>
       <c r="S95" t="s" s="2">
         <v>78</v>
@@ -13392,19 +13378,19 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>118</v>
+        <v>461</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>78</v>
@@ -13413,7 +13399,7 @@
         <v>78</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>78</v>
@@ -13424,10 +13410,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>554</v>
+        <v>519</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>524</v>
+        <v>486</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13450,13 +13436,13 @@
         <v>78</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>104</v>
+        <v>315</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>105</v>
+        <v>464</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>106</v>
+        <v>465</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13507,7 +13493,7 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>107</v>
+        <v>468</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13519,7 +13505,7 @@
         <v>78</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>78</v>
@@ -13528,7 +13514,7 @@
         <v>78</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>78</v>
@@ -13539,12 +13525,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>555</v>
+        <v>520</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="C97" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="D97" t="s" s="2">
         <v>78</v>
       </c>
@@ -13553,7 +13541,7 @@
         <v>79</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>78</v>
@@ -13610,16 +13598,16 @@
         <v>78</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>118</v>
@@ -13654,10 +13642,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>556</v>
+        <v>522</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>528</v>
+        <v>480</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13665,7 +13653,7 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>90</v>
@@ -13680,24 +13668,22 @@
         <v>78</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>501</v>
+        <v>105</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>552</v>
+        <v>78</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>78</v>
@@ -13739,10 +13725,10 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>505</v>
+        <v>107</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>90</v>
@@ -13760,7 +13746,7 @@
         <v>78</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>78</v>
@@ -13771,10 +13757,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>530</v>
+        <v>482</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13785,7 +13771,7 @@
         <v>79</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>78</v>
@@ -13797,13 +13783,13 @@
         <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>508</v>
+        <v>204</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>509</v>
+        <v>205</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13842,31 +13828,31 @@
         <v>78</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC99" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>512</v>
+        <v>118</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>78</v>
@@ -13875,7 +13861,7 @@
         <v>78</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>78</v>
@@ -13886,20 +13872,18 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>558</v>
+        <v>524</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C100" t="s" s="2">
-        <v>559</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>90</v>
@@ -13914,22 +13898,24 @@
         <v>78</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>204</v>
+        <v>457</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q100" s="2"/>
       <c r="R100" t="s" s="2">
-        <v>78</v>
+        <v>521</v>
       </c>
       <c r="S100" t="s" s="2">
         <v>78</v>
@@ -13971,19 +13957,19 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>118</v>
+        <v>461</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>78</v>
@@ -13992,7 +13978,7 @@
         <v>78</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>78</v>
@@ -14003,10 +13989,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>524</v>
+        <v>486</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14029,13 +14015,13 @@
         <v>78</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>104</v>
+        <v>315</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>105</v>
+        <v>464</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>106</v>
+        <v>465</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14086,7 +14072,7 @@
         <v>78</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>107</v>
+        <v>468</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
@@ -14098,7 +14084,7 @@
         <v>78</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>78</v>
@@ -14107,7 +14093,7 @@
         <v>78</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>78</v>
@@ -14118,10 +14104,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>561</v>
+        <v>526</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>526</v>
+        <v>456</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14129,10 +14115,10 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>78</v>
@@ -14144,22 +14130,24 @@
         <v>78</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>204</v>
+        <v>457</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q102" s="2"/>
       <c r="R102" t="s" s="2">
-        <v>78</v>
+        <v>527</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>78</v>
@@ -14189,31 +14177,31 @@
         <v>78</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC102" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>118</v>
+        <v>461</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>78</v>
@@ -14222,7 +14210,7 @@
         <v>78</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>78</v>
@@ -14233,10 +14221,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>562</v>
+        <v>528</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>528</v>
+        <v>463</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14244,10 +14232,10 @@
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>78</v>
@@ -14259,24 +14247,22 @@
         <v>78</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>137</v>
+        <v>529</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>559</v>
+        <v>78</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>78</v>
@@ -14318,10 +14304,10 @@
         <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>505</v>
+        <v>468</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>90</v>
@@ -14330,7 +14316,7 @@
         <v>78</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>78</v>
@@ -14350,10 +14336,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>563</v>
+        <v>530</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14361,7 +14347,7 @@
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>90</v>
@@ -14373,16 +14359,16 @@
         <v>78</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>315</v>
+        <v>179</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14394,7 +14380,7 @@
         <v>78</v>
       </c>
       <c r="S104" t="s" s="2">
-        <v>78</v>
+        <v>534</v>
       </c>
       <c r="T104" t="s" s="2">
         <v>78</v>
@@ -14409,13 +14395,13 @@
         <v>78</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>78</v>
+        <v>535</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>78</v>
+        <v>536</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>78</v>
@@ -14433,7 +14419,7 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>512</v>
+        <v>537</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>79</v>
@@ -14442,67 +14428,69 @@
         <v>90</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>78</v>
+        <v>538</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>78</v>
+        <v>539</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>78</v>
+        <v>540</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>202</v>
+        <v>541</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>78</v>
+        <v>542</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="105" hidden="true">
+    <row r="105">
       <c r="A105" t="s" s="2">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>565</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>204</v>
+        <v>545</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>548</v>
+      </c>
       <c r="P105" t="s" s="2">
         <v>78</v>
       </c>
@@ -14550,31 +14538,31 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>118</v>
+        <v>549</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>78</v>
+        <v>550</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>78</v>
+        <v>551</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>78</v>
+        <v>552</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>78</v>
@@ -14582,10 +14570,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14602,22 +14590,26 @@
         <v>78</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>105</v>
+        <v>555</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>558</v>
+      </c>
       <c r="P106" t="s" s="2">
         <v>78</v>
       </c>
@@ -14641,13 +14633,13 @@
         <v>78</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>78</v>
+        <v>559</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>78</v>
+        <v>560</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>78</v>
@@ -14665,7 +14657,7 @@
         <v>78</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>107</v>
+        <v>561</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
@@ -14677,19 +14669,19 @@
         <v>78</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>78</v>
+        <v>562</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>78</v>
+        <v>563</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>108</v>
+        <v>564</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>78</v>
+        <v>565</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>78</v>
@@ -14697,10 +14689,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B107" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14711,7 +14703,7 @@
         <v>79</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>78</v>
@@ -14720,18 +14712,20 @@
         <v>78</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>111</v>
+        <v>568</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>204</v>
+        <v>569</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N107" s="2"/>
+        <v>570</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>571</v>
+      </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>78</v>
@@ -14768,40 +14762,40 @@
         <v>78</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC107" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>118</v>
+        <v>572</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>78</v>
@@ -14812,10 +14806,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>528</v>
+        <v>574</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14823,7 +14817,7 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>90</v>
@@ -14835,27 +14829,25 @@
         <v>78</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>137</v>
+        <v>297</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>501</v>
+        <v>575</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>565</v>
+        <v>78</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>78</v>
@@ -14897,10 +14889,10 @@
         <v>78</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>505</v>
+        <v>577</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>90</v>
@@ -14909,30 +14901,30 @@
         <v>78</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>202</v>
+        <v>578</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>78</v>
+        <v>303</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="109" hidden="true">
+    <row r="109">
       <c r="A109" t="s" s="2">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>530</v>
+        <v>579</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14943,10 +14935,10 @@
         <v>79</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I109" t="s" s="2">
         <v>78</v>
@@ -14955,15 +14947,17 @@
         <v>78</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>315</v>
+        <v>580</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>508</v>
+        <v>581</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>582</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>583</v>
+      </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>78</v>
@@ -15012,13 +15006,13 @@
         <v>78</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>512</v>
+        <v>579</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>78</v>
@@ -15033,7 +15027,7 @@
         <v>78</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>202</v>
+        <v>584</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>78</v>
@@ -15044,10 +15038,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>500</v>
+        <v>585</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15055,7 +15049,7 @@
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>90</v>
@@ -15070,24 +15064,22 @@
         <v>78</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>501</v>
+        <v>105</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N110" s="2"/>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q110" s="2"/>
       <c r="R110" t="s" s="2">
-        <v>571</v>
+        <v>78</v>
       </c>
       <c r="S110" t="s" s="2">
         <v>78</v>
@@ -15129,10 +15121,10 @@
         <v>78</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>505</v>
+        <v>107</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>90</v>
@@ -15150,7 +15142,7 @@
         <v>78</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>78</v>
@@ -15161,21 +15153,21 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>507</v>
+        <v>586</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>78</v>
@@ -15187,15 +15179,17 @@
         <v>78</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>573</v>
+        <v>111</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>508</v>
+        <v>112</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N111" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>78</v>
@@ -15244,19 +15238,19 @@
         <v>78</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>512</v>
+        <v>118</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>78</v>
@@ -15265,7 +15259,7 @@
         <v>78</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>78</v>
@@ -15276,42 +15270,46 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>444</v>
+        <v>587</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>78</v>
+        <v>588</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J112" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>445</v>
+        <v>589</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
+        <v>590</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="P112" t="s" s="2">
         <v>78</v>
       </c>
@@ -15320,7 +15318,7 @@
         <v>78</v>
       </c>
       <c r="S112" t="s" s="2">
-        <v>575</v>
+        <v>78</v>
       </c>
       <c r="T112" t="s" s="2">
         <v>78</v>
@@ -15335,13 +15333,13 @@
         <v>78</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>447</v>
+        <v>78</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>448</v>
+        <v>78</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>78</v>
@@ -15359,42 +15357,42 @@
         <v>78</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>449</v>
+        <v>591</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>450</v>
+        <v>78</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>452</v>
+        <v>78</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>453</v>
+        <v>202</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>454</v>
+        <v>78</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>576</v>
+        <v>592</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>455</v>
+        <v>592</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15402,35 +15400,31 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>577</v>
+        <v>593</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>78</v>
       </c>
@@ -15454,13 +15448,13 @@
         <v>78</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>78</v>
+        <v>595</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>78</v>
+        <v>596</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>78</v>
@@ -15478,13 +15472,13 @@
         <v>78</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>460</v>
+        <v>592</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>78</v>
@@ -15493,16 +15487,16 @@
         <v>102</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>461</v>
+        <v>78</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>462</v>
+        <v>78</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>463</v>
+        <v>584</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>78</v>
@@ -15510,10 +15504,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>578</v>
+        <v>597</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>464</v>
+        <v>597</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15530,26 +15524,22 @@
         <v>78</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>179</v>
+        <v>315</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>465</v>
+        <v>598</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>78</v>
       </c>
@@ -15573,13 +15563,13 @@
         <v>78</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>469</v>
+        <v>78</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>470</v>
+        <v>78</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>78</v>
@@ -15597,7 +15587,7 @@
         <v>78</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>471</v>
+        <v>597</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
@@ -15612,16 +15602,16 @@
         <v>102</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>472</v>
+        <v>78</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>473</v>
+        <v>78</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>474</v>
+        <v>584</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>475</v>
+        <v>78</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>78</v>
@@ -15629,10 +15619,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>579</v>
+        <v>600</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>476</v>
+        <v>600</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15652,19 +15642,19 @@
         <v>78</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>477</v>
+        <v>601</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>478</v>
+        <v>602</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>479</v>
+        <v>603</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>480</v>
+        <v>604</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -15714,7 +15704,7 @@
         <v>78</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>481</v>
+        <v>600</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
@@ -15732,10 +15722,10 @@
         <v>78</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>108</v>
+        <v>584</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>78</v>
@@ -15746,10 +15736,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>580</v>
+        <v>605</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>482</v>
+        <v>605</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15769,18 +15759,20 @@
         <v>78</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>297</v>
+        <v>601</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>483</v>
+        <v>606</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N116" s="2"/>
+        <v>607</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>604</v>
+      </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
         <v>78</v>
@@ -15829,7 +15821,7 @@
         <v>78</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>485</v>
+        <v>605</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
@@ -15847,13 +15839,13 @@
         <v>78</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>486</v>
+        <v>584</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>78</v>
@@ -15861,10 +15853,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>581</v>
+        <v>608</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>581</v>
+        <v>608</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15887,17 +15879,15 @@
         <v>78</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>583</v>
+        <v>609</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>585</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="N117" s="2"/>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
         <v>78</v>
@@ -15946,7 +15936,7 @@
         <v>78</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>581</v>
+        <v>608</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
@@ -15967,7 +15957,7 @@
         <v>78</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>78</v>
@@ -15978,10 +15968,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16093,10 +16083,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16210,14 +16200,14 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
@@ -16239,10 +16229,10 @@
         <v>111</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="N120" t="s" s="2">
         <v>114</v>
@@ -16297,7 +16287,7 @@
         <v>78</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>79</v>
@@ -16329,10 +16319,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16340,10 +16330,10 @@
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>78</v>
@@ -16355,13 +16345,13 @@
         <v>78</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -16388,13 +16378,13 @@
         <v>78</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>597</v>
+        <v>78</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>598</v>
+        <v>78</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>78</v>
@@ -16412,13 +16402,13 @@
         <v>78</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>78</v>
@@ -16433,7 +16423,7 @@
         <v>78</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>586</v>
+        <v>108</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>78</v>
@@ -16444,10 +16434,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16470,13 +16460,13 @@
         <v>78</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>601</v>
+        <v>619</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -16527,7 +16517,7 @@
         <v>78</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
@@ -16548,7 +16538,7 @@
         <v>78</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>78</v>
@@ -16557,12 +16547,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="123" hidden="true">
+    <row r="123">
       <c r="A123" t="s" s="2">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16573,10 +16563,10 @@
         <v>79</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H123" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I123" t="s" s="2">
         <v>78</v>
@@ -16585,17 +16575,15 @@
         <v>78</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>603</v>
+        <v>104</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>606</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="N123" s="2"/>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
         <v>78</v>
@@ -16644,7 +16632,7 @@
         <v>78</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
@@ -16665,7 +16653,7 @@
         <v>78</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>78</v>
@@ -16674,12 +16662,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="124" hidden="true">
+    <row r="124">
       <c r="A124" t="s" s="2">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16690,10 +16678,10 @@
         <v>79</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I124" t="s" s="2">
         <v>78</v>
@@ -16702,18 +16690,18 @@
         <v>78</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>603</v>
+        <v>624</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="O124" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="N124" s="2"/>
+      <c r="O124" t="s" s="2">
+        <v>627</v>
+      </c>
       <c r="P124" t="s" s="2">
         <v>78</v>
       </c>
@@ -16761,13 +16749,13 @@
         <v>78</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>78</v>
@@ -16782,945 +16770,17 @@
         <v>78</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>586</v>
+        <v>108</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E125" s="2"/>
-      <c r="F125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="N125" s="2"/>
-      <c r="O125" s="2"/>
-      <c r="P125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q125" s="2"/>
-      <c r="R125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO125" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="C126" s="2"/>
-      <c r="D126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E126" s="2"/>
-      <c r="F126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
-      <c r="P126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q126" s="2"/>
-      <c r="R126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO126" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="127" hidden="true">
-      <c r="A127" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="C127" s="2"/>
-      <c r="D127" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="E127" s="2"/>
-      <c r="F127" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O127" s="2"/>
-      <c r="P127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q127" s="2"/>
-      <c r="R127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO127" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="128" hidden="true">
-      <c r="A128" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="B128" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="C128" s="2"/>
-      <c r="D128" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="E128" s="2"/>
-      <c r="F128" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J128" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="P128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q128" s="2"/>
-      <c r="R128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ128" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO128" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="129" hidden="true">
-      <c r="A129" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="B129" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="C129" s="2"/>
-      <c r="D129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E129" s="2"/>
-      <c r="F129" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N129" s="2"/>
-      <c r="O129" s="2"/>
-      <c r="P129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q129" s="2"/>
-      <c r="R129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO129" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="130" hidden="true">
-      <c r="A130" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="B130" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="C130" s="2"/>
-      <c r="D130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E130" s="2"/>
-      <c r="F130" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K130" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="N130" s="2"/>
-      <c r="O130" s="2"/>
-      <c r="P130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q130" s="2"/>
-      <c r="R130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="AG130" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH130" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ130" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO130" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E131" s="2"/>
-      <c r="F131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="N131" s="2"/>
-      <c r="O131" s="2"/>
-      <c r="P131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q131" s="2"/>
-      <c r="R131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ131" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO131" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="C132" s="2"/>
-      <c r="D132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E132" s="2"/>
-      <c r="F132" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G132" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N132" s="2"/>
-      <c r="O132" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="P132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q132" s="2"/>
-      <c r="R132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF132" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="AG132" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH132" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ132" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM132" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AN132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO132" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO132">
+  <autoFilter ref="A1:AO124">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -17730,7 +16790,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI131">
+  <conditionalFormatting sqref="A2:AI123">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/nr-mv-MS/ig/StructureDefinition-as-dr-practitionerrole.xlsx
+++ b/nr-mv-MS/ig/StructureDefinition-as-dr-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:26:13+00:00</t>
+    <t>2025-10-08T14:58:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
